--- a/RGC AIS geometry 3d.xlsx
+++ b/RGC AIS geometry 3d.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahgoethals/Dropbox/Spike initiation/PhD projects/Axonal current and AIS geometry/Data confocal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/repositories/AIS-geometry-and-axial-current/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9B3AF-3DE0-4941-A5C4-9E83516A04E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="460" windowWidth="19600" windowHeight="14440"/>
+    <workbookView xWindow="340" yWindow="680" windowWidth="19600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -110,18 +111,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,14 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,904 +449,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:J25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>20190329</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>10.1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>33.659999999999997</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <f>F2-E2</f>
         <v>23.559999999999995</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>1.52</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>1.02</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>7.49</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>20190329</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>11.22</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>35.520000000000003</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G12" si="0">F3-E3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G9" si="0">F3-E3</f>
         <v>24.300000000000004</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>1.2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>0.7</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>5.91</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>20190329</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>1.58</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>36.979999999999997</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>35.4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>1.66</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>0.77</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>0.43</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>20190419</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>5.52</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>32.99</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>27.470000000000002</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>1.03</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>5.58</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20190618</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10.63</v>
-      </c>
-      <c r="F6" s="4">
-        <v>37.68</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>27.049999999999997</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J6" s="4">
-        <v>11.54</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>20190716</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>13.62</v>
-      </c>
-      <c r="F7" s="4">
-        <v>38.340000000000003</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>24.720000000000006</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="J7" s="4">
-        <v>11.07</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="K5" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>20191031</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
         <v>6.84</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F6" s="1">
         <v>29.85</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>23.01</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H6" s="1">
         <v>0.78</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I6" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J6" s="1">
         <v>9.74</v>
       </c>
-      <c r="K8" s="3">
-        <v>0.155</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="K6" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>20191112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3.45</v>
-      </c>
-      <c r="F9" s="4">
-        <v>22.43</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>18.98</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="J9" s="4">
-        <v>8.56</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>20191114</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>10.36</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F7" s="1">
         <v>45.12</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>34.76</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H7" s="1">
         <v>0.98</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I7" s="1">
         <v>0.61</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J7" s="1">
         <v>13.42</v>
       </c>
-      <c r="K10" s="4">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="K7" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>20191114</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
         <v>7.2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F8" s="1">
         <v>26.33</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>19.13</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H8" s="1">
         <v>0.85</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I8" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J8" s="1">
         <v>7.76</v>
       </c>
-      <c r="K11" s="4">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="K8" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>20191115</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
         <v>6.05</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F9" s="1">
         <v>43.63</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>37.580000000000005</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H9" s="1">
         <v>1.29</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I9" s="1">
         <v>0.76</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J9" s="1">
         <v>2.85</v>
       </c>
-      <c r="K12" s="4">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>20191119</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7.38</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="J13" s="3">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="K9" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>20191121</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
         <v>11.95</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F10" s="1">
         <v>23.38</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" ref="G14:G25" si="1">F14-E14</f>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G19" si="1">F10-E10</f>
         <v>11.43</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H10" s="1">
         <v>0.95</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I10" s="1">
         <v>0.94</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J10" s="1">
         <v>6.34</v>
       </c>
-      <c r="K14" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="K10" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>20191122</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
         <v>9.57</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F11" s="1">
         <v>35.03</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>25.46</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H11" s="1">
         <v>0.94</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I11" s="1">
         <v>0.72</v>
       </c>
-      <c r="J15" s="3">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>20191126</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3">
-        <v>28.95</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>22.95</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="J16" s="3">
-        <v>9.51</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>20191126</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="F17" s="3">
-        <v>20.62</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>15.93</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6.33</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>20200213</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
         <v>16.239999999999998</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F12" s="2">
         <v>50.25</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>34.010000000000005</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H12" s="2">
         <v>0.64</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I12" s="2">
         <v>0.35</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J12" s="2">
         <v>46.13</v>
       </c>
-      <c r="K18" s="5">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="K12" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>20200214</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
         <v>5.2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F13" s="1">
         <v>37.36</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>32.159999999999997</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H13" s="1">
         <v>0.77</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I13" s="1">
         <v>0.31</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J13" s="1">
         <v>13.09</v>
       </c>
-      <c r="K19" s="4">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="K13" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>20200220</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
         <v>8.25</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F14" s="1">
         <v>49.8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>41.55</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H14" s="1">
         <v>0.66</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I14" s="1">
         <v>0.38</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J14" s="1">
         <v>16.18</v>
       </c>
-      <c r="K20" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="K14" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>20200221</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
         <v>11.39</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F15" s="1">
         <v>39.119999999999997</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>27.729999999999997</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H15" s="1">
         <v>0.94</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I15" s="1">
         <v>0.35</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J15" s="1">
         <v>18.239999999999998</v>
       </c>
-      <c r="K21" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="K15" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>20200222</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>12</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E16" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F16" s="1">
         <v>39.840000000000003</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>31.390000000000004</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H16" s="1">
         <v>0.76</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I16" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J16" s="1">
         <v>11.66</v>
       </c>
-      <c r="K22" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="K16" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>20200222</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>12</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E17" s="1">
         <v>3.84</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F17" s="1">
         <v>44.93</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>41.09</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H17" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I17" s="1">
         <v>0.48</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J17" s="1">
         <v>1.92</v>
       </c>
-      <c r="K23" s="3">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="K17" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>20200227</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
         <v>9.61</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F18" s="2">
         <v>41.93</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>32.32</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H18" s="2">
         <v>0.85</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I18" s="2">
         <v>0.41</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J18" s="2">
         <v>14.85</v>
       </c>
-      <c r="K24" s="4">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="K18" s="1">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>20200228</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <v>11</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
         <v>2.88</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F19" s="2">
         <v>29.35</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>26.470000000000002</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H19" s="2">
         <v>0.49</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I19" s="2">
         <v>0.31</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J19" s="2">
         <v>7.69</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K19" s="2">
         <v>0.155</v>
       </c>
     </row>
